--- a/whoishiring/employment.xlsx
+++ b/whoishiring/employment.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winson/Google Drive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winson\Google Drive\2018\WinsonLuk.com\whoishiring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -116,11 +116,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000000%"/>
-    <numFmt numFmtId="170" formatCode="0.00000000000000%"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -168,11 +168,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -185,12 +185,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -204,7 +207,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -306,7 +308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -331,217 +332,217 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>40634.0</c:v>
+                  <c:v>40634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40664.0</c:v>
+                  <c:v>40664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40695.0</c:v>
+                  <c:v>40695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40725.0</c:v>
+                  <c:v>40725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40756.0</c:v>
+                  <c:v>40756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40787.0</c:v>
+                  <c:v>40787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40817.0</c:v>
+                  <c:v>40817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40848.0</c:v>
+                  <c:v>40848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40878.0</c:v>
+                  <c:v>40878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40909.0</c:v>
+                  <c:v>40909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40940.0</c:v>
+                  <c:v>40940</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40969.0</c:v>
+                  <c:v>40969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41000.0</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41030.0</c:v>
+                  <c:v>41030</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41061.0</c:v>
+                  <c:v>41061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41091.0</c:v>
+                  <c:v>41091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41122.0</c:v>
+                  <c:v>41122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41153.0</c:v>
+                  <c:v>41153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41183.0</c:v>
+                  <c:v>41183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41214.0</c:v>
+                  <c:v>41214</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41244.0</c:v>
+                  <c:v>41244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41275.0</c:v>
+                  <c:v>41275</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41306.0</c:v>
+                  <c:v>41306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41334.0</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41365.0</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41395.0</c:v>
+                  <c:v>41395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41456.0</c:v>
+                  <c:v>41456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41518.0</c:v>
+                  <c:v>41518</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41579.0</c:v>
+                  <c:v>41579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41609.0</c:v>
+                  <c:v>41609</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41640.0</c:v>
+                  <c:v>41640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41730.0</c:v>
+                  <c:v>41730</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41760.0</c:v>
+                  <c:v>41760</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41791.0</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41821.0</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41852.0</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41883.0</c:v>
+                  <c:v>41883</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41913.0</c:v>
+                  <c:v>41913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41974.0</c:v>
+                  <c:v>41974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42005.0</c:v>
+                  <c:v>42005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42036.0</c:v>
+                  <c:v>42036</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42064.0</c:v>
+                  <c:v>42064</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42095.0</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42125.0</c:v>
+                  <c:v>42125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42156.0</c:v>
+                  <c:v>42156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42186.0</c:v>
+                  <c:v>42186</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42217.0</c:v>
+                  <c:v>42217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42248.0</c:v>
+                  <c:v>42248</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42278.0</c:v>
+                  <c:v>42278</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42309.0</c:v>
+                  <c:v>42309</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42339.0</c:v>
+                  <c:v>42339</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42370.0</c:v>
+                  <c:v>42370</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42401.0</c:v>
+                  <c:v>42401</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42430.0</c:v>
+                  <c:v>42430</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42461.0</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42491.0</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42522.0</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42552.0</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42675.0</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42705.0</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42736.0</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42767.0</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,222 +554,227 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>295.0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292.0</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>331.0</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>283.0</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>307.0</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>233.0</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>276.0</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>294.0</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>251.0</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>224.0</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>230.0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297.0</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>223.0</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>255.0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.0</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>292.0</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>302.0</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>295.0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>263.0</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>286.0</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>255.0</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>258.0</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>362.0</c:v>
+                  <c:v>362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>420.0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>442.0</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>364.0</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>371.0</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>388.0</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>376.0</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>564.0</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>391.0</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>322.0</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>288.0</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>383.0</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>433.0</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>531.0</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>495.0</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>426.0</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>495.0</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>588.0</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>328.0</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>429.0</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>426.0</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>570.0</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>334.0</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>642.0</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>680.0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>952.0</c:v>
+                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>894.0</c:v>
+                  <c:v>894</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>779.0</c:v>
+                  <c:v>779</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1095.0</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>975.0</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>871.0</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>704.0</c:v>
+                  <c:v>704</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>889.0</c:v>
+                  <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>430.0</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>472.0</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>790.0</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>825.0</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>720.0</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>937.0</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1007.0</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>898.0</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>946.0</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>911.0</c:v>
+                  <c:v>911</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>990.0</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1140.0</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>840.0</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>937.0</c:v>
+                  <c:v>937</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1097.0</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DBB-4B18-88F3-B2945FFB64F9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -873,9 +879,9 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
         <c:majorTimeUnit val="months"/>
-        <c:minorUnit val="31.0"/>
+        <c:minorUnit val="31"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1780505792"/>
@@ -884,6 +890,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -976,7 +983,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -990,7 +997,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hiring Surplus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Seeking to Hiring</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ratio)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1104,7 +1148,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1173,44 +1216,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-0.228251376405844</c:v>
+                  <c:v>-0.22825137640584403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0340279789777249</c:v>
+                  <c:v>3.4027978977724915E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.0507659725287755</c:v>
+                  <c:v>-5.076597252877546E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0348654693143375</c:v>
+                  <c:v>-3.4865469314337538E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.147627069855633</c:v>
+                  <c:v>0.14762706985563268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.234158149281178</c:v>
+                  <c:v>-0.23415814928117817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.143521254641734</c:v>
+                  <c:v>0.14352125464173449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.197633838843738</c:v>
+                  <c:v>0.19763383884373797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.0397115254907879</c:v>
+                  <c:v>-3.9711525490787936E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.00149826405466724</c:v>
+                  <c:v>-1.4982640546672421E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0234691426231918</c:v>
+                  <c:v>2.3469142623191774E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0429714721335658</c:v>
+                  <c:v>4.297147213356578E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D46-403B-995C-5DFF7279479D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1277,6 +1325,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1344,7 +1393,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1358,7 +1407,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1460,7 +1508,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1485,217 +1532,217 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>40634.0</c:v>
+                  <c:v>40634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40664.0</c:v>
+                  <c:v>40664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40695.0</c:v>
+                  <c:v>40695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40725.0</c:v>
+                  <c:v>40725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40756.0</c:v>
+                  <c:v>40756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40787.0</c:v>
+                  <c:v>40787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40817.0</c:v>
+                  <c:v>40817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40848.0</c:v>
+                  <c:v>40848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40878.0</c:v>
+                  <c:v>40878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40909.0</c:v>
+                  <c:v>40909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40940.0</c:v>
+                  <c:v>40940</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40969.0</c:v>
+                  <c:v>40969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41000.0</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41030.0</c:v>
+                  <c:v>41030</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41061.0</c:v>
+                  <c:v>41061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41091.0</c:v>
+                  <c:v>41091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41122.0</c:v>
+                  <c:v>41122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41153.0</c:v>
+                  <c:v>41153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41183.0</c:v>
+                  <c:v>41183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41214.0</c:v>
+                  <c:v>41214</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41244.0</c:v>
+                  <c:v>41244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41275.0</c:v>
+                  <c:v>41275</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41306.0</c:v>
+                  <c:v>41306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41334.0</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41365.0</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41395.0</c:v>
+                  <c:v>41395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41456.0</c:v>
+                  <c:v>41456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41518.0</c:v>
+                  <c:v>41518</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41579.0</c:v>
+                  <c:v>41579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41609.0</c:v>
+                  <c:v>41609</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41640.0</c:v>
+                  <c:v>41640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41730.0</c:v>
+                  <c:v>41730</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41760.0</c:v>
+                  <c:v>41760</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41791.0</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41821.0</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41852.0</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41883.0</c:v>
+                  <c:v>41883</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41913.0</c:v>
+                  <c:v>41913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41974.0</c:v>
+                  <c:v>41974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42005.0</c:v>
+                  <c:v>42005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42036.0</c:v>
+                  <c:v>42036</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42064.0</c:v>
+                  <c:v>42064</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42095.0</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42125.0</c:v>
+                  <c:v>42125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42156.0</c:v>
+                  <c:v>42156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42186.0</c:v>
+                  <c:v>42186</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42217.0</c:v>
+                  <c:v>42217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42248.0</c:v>
+                  <c:v>42248</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42278.0</c:v>
+                  <c:v>42278</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42309.0</c:v>
+                  <c:v>42309</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42339.0</c:v>
+                  <c:v>42339</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42370.0</c:v>
+                  <c:v>42370</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42401.0</c:v>
+                  <c:v>42401</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42430.0</c:v>
+                  <c:v>42430</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42461.0</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42491.0</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42522.0</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42552.0</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42675.0</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42705.0</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42736.0</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42767.0</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,222 +1754,227 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0920-426A-B407-C5BC17CD8FED}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -2027,9 +2079,9 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
         <c:majorTimeUnit val="months"/>
-        <c:minorUnit val="31.0"/>
+        <c:minorUnit val="31"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1784966528"/>
@@ -2038,6 +2090,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2130,7 +2183,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2144,7 +2197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2181,10 +2233,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0224152368080856"/>
-          <c:y val="0.179275667937085"/>
-          <c:w val="0.960793718415795"/>
-          <c:h val="0.730139101162723"/>
+          <c:x val="2.24152368080856E-2"/>
+          <c:y val="0.17927566793708499"/>
+          <c:w val="0.96079371841579497"/>
+          <c:h val="0.73013910116272296"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2256,7 +2308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2281,217 +2332,217 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>40634.0</c:v>
+                  <c:v>40634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40664.0</c:v>
+                  <c:v>40664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40695.0</c:v>
+                  <c:v>40695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40725.0</c:v>
+                  <c:v>40725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40756.0</c:v>
+                  <c:v>40756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40787.0</c:v>
+                  <c:v>40787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40817.0</c:v>
+                  <c:v>40817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40848.0</c:v>
+                  <c:v>40848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40878.0</c:v>
+                  <c:v>40878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40909.0</c:v>
+                  <c:v>40909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40940.0</c:v>
+                  <c:v>40940</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40969.0</c:v>
+                  <c:v>40969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41000.0</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41030.0</c:v>
+                  <c:v>41030</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41061.0</c:v>
+                  <c:v>41061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41091.0</c:v>
+                  <c:v>41091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41122.0</c:v>
+                  <c:v>41122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41153.0</c:v>
+                  <c:v>41153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41183.0</c:v>
+                  <c:v>41183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41214.0</c:v>
+                  <c:v>41214</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41244.0</c:v>
+                  <c:v>41244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41275.0</c:v>
+                  <c:v>41275</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41306.0</c:v>
+                  <c:v>41306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41334.0</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41365.0</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41395.0</c:v>
+                  <c:v>41395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41456.0</c:v>
+                  <c:v>41456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41518.0</c:v>
+                  <c:v>41518</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41579.0</c:v>
+                  <c:v>41579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41609.0</c:v>
+                  <c:v>41609</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41640.0</c:v>
+                  <c:v>41640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41730.0</c:v>
+                  <c:v>41730</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41760.0</c:v>
+                  <c:v>41760</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41791.0</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41821.0</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41852.0</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41883.0</c:v>
+                  <c:v>41883</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41913.0</c:v>
+                  <c:v>41913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41974.0</c:v>
+                  <c:v>41974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42005.0</c:v>
+                  <c:v>42005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42036.0</c:v>
+                  <c:v>42036</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42064.0</c:v>
+                  <c:v>42064</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42095.0</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42125.0</c:v>
+                  <c:v>42125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42156.0</c:v>
+                  <c:v>42156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42186.0</c:v>
+                  <c:v>42186</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42217.0</c:v>
+                  <c:v>42217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42248.0</c:v>
+                  <c:v>42248</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42278.0</c:v>
+                  <c:v>42278</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42309.0</c:v>
+                  <c:v>42309</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42339.0</c:v>
+                  <c:v>42339</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42370.0</c:v>
+                  <c:v>42370</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42401.0</c:v>
+                  <c:v>42401</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42430.0</c:v>
+                  <c:v>42430</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42461.0</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42491.0</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42522.0</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42552.0</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42675.0</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42705.0</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42736.0</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42767.0</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,222 +2554,227 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117.0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159.0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>125.0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>134.0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>152.0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>212.0</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>175.0</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>164.0</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>141.0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>182.0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>179.0</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>169.0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>218.0</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>144.0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162.0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>161.0</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>122.0</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>151.0</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>151.0</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>129.0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>159.0</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>131.0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>197.0</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>158.0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>129.0</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>138.0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>199.0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>135.0</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>191.0</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB1A-4EB2-8C22-08487C750C35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2786,7 +2842,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2811,217 +2866,217 @@
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="0">
-                  <c:v>40634.0</c:v>
+                  <c:v>40634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40664.0</c:v>
+                  <c:v>40664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40695.0</c:v>
+                  <c:v>40695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40725.0</c:v>
+                  <c:v>40725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40756.0</c:v>
+                  <c:v>40756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40787.0</c:v>
+                  <c:v>40787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40817.0</c:v>
+                  <c:v>40817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40848.0</c:v>
+                  <c:v>40848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40878.0</c:v>
+                  <c:v>40878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40909.0</c:v>
+                  <c:v>40909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40940.0</c:v>
+                  <c:v>40940</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40969.0</c:v>
+                  <c:v>40969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41000.0</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41030.0</c:v>
+                  <c:v>41030</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41061.0</c:v>
+                  <c:v>41061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41091.0</c:v>
+                  <c:v>41091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41122.0</c:v>
+                  <c:v>41122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41153.0</c:v>
+                  <c:v>41153</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41183.0</c:v>
+                  <c:v>41183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41214.0</c:v>
+                  <c:v>41214</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41244.0</c:v>
+                  <c:v>41244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41275.0</c:v>
+                  <c:v>41275</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41306.0</c:v>
+                  <c:v>41306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41334.0</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41365.0</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41395.0</c:v>
+                  <c:v>41395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41426.0</c:v>
+                  <c:v>41426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41456.0</c:v>
+                  <c:v>41456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41487.0</c:v>
+                  <c:v>41487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41518.0</c:v>
+                  <c:v>41518</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41579.0</c:v>
+                  <c:v>41579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41609.0</c:v>
+                  <c:v>41609</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41640.0</c:v>
+                  <c:v>41640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41671.0</c:v>
+                  <c:v>41671</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41699.0</c:v>
+                  <c:v>41699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41730.0</c:v>
+                  <c:v>41730</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41760.0</c:v>
+                  <c:v>41760</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41791.0</c:v>
+                  <c:v>41791</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41821.0</c:v>
+                  <c:v>41821</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41852.0</c:v>
+                  <c:v>41852</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41883.0</c:v>
+                  <c:v>41883</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41913.0</c:v>
+                  <c:v>41913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41944.0</c:v>
+                  <c:v>41944</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41974.0</c:v>
+                  <c:v>41974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42005.0</c:v>
+                  <c:v>42005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42036.0</c:v>
+                  <c:v>42036</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42064.0</c:v>
+                  <c:v>42064</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42095.0</c:v>
+                  <c:v>42095</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42125.0</c:v>
+                  <c:v>42125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42156.0</c:v>
+                  <c:v>42156</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42186.0</c:v>
+                  <c:v>42186</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42217.0</c:v>
+                  <c:v>42217</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42248.0</c:v>
+                  <c:v>42248</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42278.0</c:v>
+                  <c:v>42278</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42309.0</c:v>
+                  <c:v>42309</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42339.0</c:v>
+                  <c:v>42339</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42370.0</c:v>
+                  <c:v>42370</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42401.0</c:v>
+                  <c:v>42401</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42430.0</c:v>
+                  <c:v>42430</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42461.0</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42491.0</c:v>
+                  <c:v>42491</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42522.0</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42552.0</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42583.0</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42614.0</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42644.0</c:v>
+                  <c:v>42644</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42675.0</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42705.0</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42736.0</c:v>
+                  <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42767.0</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,105 +3088,110 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="39">
-                  <c:v>219.0</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>346.0</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>227.0</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>143.0</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>227.0</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>169.0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>194.0</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>278.0</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>142.0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>177.0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>127.0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>202.0</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>283.0</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>169.0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>166.0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>261.0</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>252.0</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>122.0</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>275.0</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB1A-4EB2-8C22-08487C750C35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -3210,7 +3270,7 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
@@ -3277,7 +3337,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3345,7 +3404,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3384,7 +3443,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3496,44 +3554,49 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.700299080093029</c:v>
+                  <c:v>0.70029908009302932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.913614863396524</c:v>
+                  <c:v>0.91361486339652398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.052135656658277</c:v>
+                  <c:v>1.0521356566582774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.10231073855241</c:v>
+                  <c:v>1.1023107385524102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.147268087344054</c:v>
+                  <c:v>1.1472680873440542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.026429063952191</c:v>
+                  <c:v>1.0264290639521914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.095481487972411</c:v>
+                  <c:v>1.0954814879724106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.134276870527227</c:v>
+                  <c:v>1.1342768705272275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.965559698591934</c:v>
+                  <c:v>0.96555969859193425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.045027029806706</c:v>
+                  <c:v>1.0450270298067057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.976001530775203</c:v>
+                  <c:v>0.97600153077520324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.841595892330031</c:v>
+                  <c:v>0.84159589233003063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F52-49F3-BB23-FCEE27E4C76A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3602,7 +3665,7 @@
         <c:axId val="1774309472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3620,6 +3683,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3700,7 +3764,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3743,7 +3807,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3856,45 +3919,50 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.871450526678564</c:v>
+                  <c:v>0.87145052667856404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.170331993893885</c:v>
+                  <c:v>1.1703319938938848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.308618964507838</c:v>
+                  <c:v>1.3086189645078381</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.406972421000712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.020231679328214</c:v>
+                  <c:v>1.0202316793282138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.810548797030797</c:v>
+                  <c:v>0.8105487970307973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.734809084194126</c:v>
+                  <c:v>0.73480908419412605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.962412310485885</c:v>
+                  <c:v>0.96241231048588483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.888154029347243</c:v>
+                  <c:v>0.88815402934724319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.028896829816182</c:v>
+                  <c:v>1.0288968298161816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.889172272074752</c:v>
+                  <c:v>0.88917227207475202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.908401091641803</c:v>
+                  <c:v>0.90840109164180338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E4C-4FAA-889A-36A9434A6C3B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3981,6 +4049,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4061,7 +4130,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4100,7 +4169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4213,45 +4281,50 @@
                 <c:formatCode>0.000000000000000%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.066405103831088</c:v>
+                  <c:v>1.0664051038310878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.871590244270402</c:v>
+                  <c:v>0.87159024427040244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.059066342678554</c:v>
+                  <c:v>1.0590663426785545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.974894356671216</c:v>
+                  <c:v>0.97489435667121582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.054476333457654</c:v>
+                  <c:v>1.0544763334576543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.092540005284537</c:v>
+                  <c:v>1.0925400052845369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.904245922435631</c:v>
+                  <c:v>0.90424592243563073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.941126595437784</c:v>
+                  <c:v>0.94112659543778354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.860547031392654</c:v>
+                  <c:v>0.86054703139265365</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.210045689943988</c:v>
+                  <c:v>1.2100456899439884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.084590863857993</c:v>
+                  <c:v>1.0845908638579929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.880471510738501</c:v>
+                  <c:v>0.88047151073850061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CAE-4ED1-9871-5C96FACA18BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4338,6 +4411,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000000000000000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4418,7 +4492,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4432,7 +4506,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4545,45 +4618,50 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.622685457730523</c:v>
+                  <c:v>0.62268545773052264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.897329429748054</c:v>
+                  <c:v>0.89732942974805374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.200161171127784</c:v>
+                  <c:v>1.2001611711277838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.497239065206834</c:v>
+                  <c:v>1.4972390652068344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.877975160181686</c:v>
+                  <c:v>0.87797516018168642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.633441955869842</c:v>
+                  <c:v>1.6334419558698416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.057826360629058</c:v>
+                  <c:v>1.0578263606290581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92669512460365</c:v>
+                  <c:v>0.92669512460364967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.326378026613812</c:v>
+                  <c:v>1.3263780266138121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68371441505307</c:v>
+                  <c:v>0.6837144150530704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.659527645179365</c:v>
+                  <c:v>0.65952764517936535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.617026188056323</c:v>
+                  <c:v>0.61702618805632325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C17-467B-A8A0-9CA7EEB96B13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4670,6 +4748,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4750,7 +4829,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4764,7 +4843,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4877,45 +4955,50 @@
                 <c:formatCode>0.00000000000000%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.02839459160628</c:v>
+                  <c:v>1.0283945916062791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.974166119302541</c:v>
+                  <c:v>0.97416611930254082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.221493202217919</c:v>
+                  <c:v>1.2214932022179188</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.259453219465323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.10712929893879</c:v>
+                  <c:v>1.1071292989387895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.396134225409001</c:v>
+                  <c:v>1.3961342254090008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.054321548742577</c:v>
+                  <c:v>1.0543215487425768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.037357336165585</c:v>
+                  <c:v>1.0373573361655852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.113364904091617</c:v>
+                  <c:v>1.1133649040916171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.159054895351843</c:v>
+                  <c:v>1.1590548953518434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.054955225587712</c:v>
+                  <c:v>1.0549552255877117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.884498013765977</c:v>
+                  <c:v>0.88449801376597725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6213-4288-8E9A-8B18700926A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5002,6 +5085,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000000000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5082,7 +5166,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5096,7 +5180,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hacker</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> News: Who's Hiring?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5198,7 +5310,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5268,45 +5379,50 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.700299080093029</c:v>
+                  <c:v>0.70029908009302932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.913614863396524</c:v>
+                  <c:v>0.91361486339652398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.052135656658277</c:v>
+                  <c:v>1.0521356566582774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.10231073855241</c:v>
+                  <c:v>1.1023107385524102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.147268087344054</c:v>
+                  <c:v>1.1472680873440542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.026429063952191</c:v>
+                  <c:v>1.0264290639521914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.095481487972411</c:v>
+                  <c:v>1.0954814879724106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.134276870527227</c:v>
+                  <c:v>1.1342768705272275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.965559698591934</c:v>
+                  <c:v>0.96555969859193425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.045027029806706</c:v>
+                  <c:v>1.0450270298067057</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.976001530775203</c:v>
+                  <c:v>0.97600153077520324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.841595892330031</c:v>
+                  <c:v>0.84159589233003063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB91-4EE6-B2C6-83119E9599B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5374,7 +5490,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5444,45 +5559,50 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.928550456498873</c:v>
+                  <c:v>0.92855045649887336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.879586884418799</c:v>
+                  <c:v>0.87958688441879906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.102901629187053</c:v>
+                  <c:v>1.1029016291870528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.137176207866748</c:v>
+                  <c:v>1.1371762078667478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.999641017488421</c:v>
+                  <c:v>0.99964101748842149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26058721323337</c:v>
+                  <c:v>1.2605872132333695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.951960233330676</c:v>
+                  <c:v>0.95196023333067614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.936643031683489</c:v>
+                  <c:v>0.9366430316834895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.005271224082722</c:v>
+                  <c:v>1.0052712240827222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.046525293861373</c:v>
+                  <c:v>1.0465252938613729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.952532388152011</c:v>
+                  <c:v>0.95253238815201147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.798624420196465</c:v>
+                  <c:v>0.79862442019646485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB91-4EE6-B2C6-83119E9599B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -5571,6 +5691,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5615,7 +5736,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11376,7 +11496,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11406,7 +11532,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11436,7 +11568,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11466,7 +11604,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11496,7 +11640,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11526,7 +11676,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11556,7 +11712,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11586,7 +11748,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11616,7 +11784,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11646,7 +11820,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11926,38 +12106,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK33" sqref="AK33"/>
+    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="22.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.8125" style="3"/>
+    <col min="4" max="4" width="22.8125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.6875" customWidth="1"/>
     <col min="10" max="10" width="24.5" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.1875" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="18" max="18" width="22.3125" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" customWidth="1"/>
+    <col min="23" max="23" width="11.8125" customWidth="1"/>
     <col min="24" max="24" width="27" style="7" customWidth="1"/>
-    <col min="25" max="25" width="25.1640625" customWidth="1"/>
+    <col min="25" max="25" width="25.1875" customWidth="1"/>
     <col min="29" max="29" width="25.5" customWidth="1"/>
     <col min="30" max="30" width="24.5" customWidth="1"/>
-    <col min="32" max="32" width="16.1640625" customWidth="1"/>
+    <col min="32" max="32" width="16.1875" customWidth="1"/>
     <col min="33" max="33" width="30" customWidth="1"/>
-    <col min="34" max="34" width="27.1640625" customWidth="1"/>
+    <col min="34" max="34" width="27.1875" customWidth="1"/>
     <col min="35" max="35" width="30.5" customWidth="1"/>
-    <col min="36" max="36" width="13.83203125" customWidth="1"/>
-    <col min="39" max="39" width="13.33203125" customWidth="1"/>
+    <col min="36" max="36" width="13.8125" customWidth="1"/>
+    <col min="39" max="39" width="13.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12031,7 +12211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A2" s="2">
         <v>40634</v>
       </c>
@@ -12083,7 +12263,7 @@
         <v>0.87145052667856404</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>40664</v>
       </c>
@@ -12135,7 +12315,7 @@
         <v>1.1703319938938848</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>40695</v>
       </c>
@@ -12187,7 +12367,7 @@
         <v>1.3086189645078381</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>40725</v>
       </c>
@@ -12239,7 +12419,7 @@
         <v>1.406972421000712</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>40756</v>
       </c>
@@ -12291,7 +12471,7 @@
         <v>1.0202316793282138</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>40787</v>
       </c>
@@ -12344,7 +12524,7 @@
         <v>0.8105487970307973</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>40817</v>
       </c>
@@ -12420,7 +12600,7 @@
         <v>0.73480908419412605</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
         <v>40848</v>
       </c>
@@ -12496,7 +12676,7 @@
         <v>0.96241231048588483</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>40878</v>
       </c>
@@ -12572,7 +12752,7 @@
         <v>0.88815402934724319</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>40909</v>
       </c>
@@ -12648,7 +12828,7 @@
         <v>1.0288968298161816</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>40940</v>
       </c>
@@ -12724,7 +12904,7 @@
         <v>0.88917227207475202</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A13" s="2">
         <v>40969</v>
       </c>
@@ -12800,7 +12980,7 @@
         <v>0.90840109164180338</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A14" s="2">
         <v>41000</v>
       </c>
@@ -12856,7 +13036,7 @@
         <v>12.092378184728856</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A15" s="2">
         <v>41030</v>
       </c>
@@ -12904,7 +13084,7 @@
         <v>0.86274509803921573</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A16" s="2">
         <v>41061</v>
       </c>
@@ -12952,7 +13132,7 @@
         <v>0.76427184466019427</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A17" s="2">
         <v>41091</v>
       </c>
@@ -13000,7 +13180,7 @@
         <v>1.0575056011949215</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A18" s="2">
         <v>41122</v>
       </c>
@@ -13048,7 +13228,7 @@
         <v>0.85967503692762182</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A19" s="2">
         <v>41153</v>
       </c>
@@ -13096,7 +13276,7 @@
         <v>1.0969406561002581</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A20" s="2">
         <v>41183</v>
       </c>
@@ -13144,7 +13324,7 @@
         <v>1.380108499095841</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A21" s="2">
         <v>41214</v>
       </c>
@@ -13192,7 +13372,7 @@
         <v>1.0183299389002036</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A22" s="2">
         <v>41244</v>
       </c>
@@ -13240,7 +13420,7 @@
         <v>0.99079072721498884</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A23" s="2">
         <v>41275</v>
       </c>
@@ -13288,7 +13468,7 @@
         <v>0.97899543378995435</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A24" s="2">
         <v>41306</v>
       </c>
@@ -13336,7 +13516,7 @@
         <v>0.63361689645057195</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A25" s="2">
         <v>41334</v>
       </c>
@@ -13384,7 +13564,7 @@
         <v>0.76953907815631251</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A26" s="2">
         <v>41365</v>
       </c>
@@ -13432,7 +13612,7 @@
         <v>1.032550240588735</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A27" s="2">
         <v>41395</v>
       </c>
@@ -13480,7 +13660,7 @@
         <v>1.4094182825484765</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A28" s="2">
         <v>41426</v>
       </c>
@@ -13528,7 +13708,7 @@
         <v>1.0431965442764579</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A29" s="2">
         <v>41456</v>
       </c>
@@ -13576,7 +13756,7 @@
         <v>1.1152416356877322</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A30" s="2">
         <v>41487</v>
       </c>
@@ -13624,7 +13804,7 @@
         <v>1.0178432893716058</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A31" s="2">
         <v>41518</v>
       </c>
@@ -13672,7 +13852,7 @@
         <v>0.8351431391905233</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A32" s="2">
         <v>41548</v>
       </c>
@@ -13759,7 +13939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A33" s="2">
         <v>41579</v>
       </c>
@@ -13856,7 +14036,7 @@
       <c r="AL33" s="13"/>
       <c r="AM33" s="7"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A34" s="2">
         <v>41609</v>
       </c>
@@ -13953,7 +14133,7 @@
       <c r="AL34" s="13"/>
       <c r="AM34" s="7"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A35" s="2">
         <v>41640</v>
       </c>
@@ -14050,7 +14230,7 @@
       <c r="AL35" s="13"/>
       <c r="AM35" s="7"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A36" s="2">
         <v>41671</v>
       </c>
@@ -14147,7 +14327,7 @@
       <c r="AL36" s="13"/>
       <c r="AM36" s="7"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A37" s="2">
         <v>41699</v>
       </c>
@@ -14244,7 +14424,7 @@
       <c r="AL37" s="13"/>
       <c r="AM37" s="7"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>41730</v>
       </c>
@@ -14341,7 +14521,7 @@
       <c r="AL38" s="13"/>
       <c r="AM38" s="7"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>41760</v>
       </c>
@@ -14438,7 +14618,7 @@
       <c r="AL39" s="13"/>
       <c r="AM39" s="7"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>41791</v>
       </c>
@@ -14535,7 +14715,7 @@
       <c r="AL40" s="13"/>
       <c r="AM40" s="7"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A41" s="2">
         <v>41821</v>
       </c>
@@ -14635,7 +14815,7 @@
       <c r="AL41" s="13"/>
       <c r="AM41" s="7"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A42" s="2">
         <v>41852</v>
       </c>
@@ -14735,7 +14915,7 @@
       <c r="AL42" s="13"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A43" s="2">
         <v>41883</v>
       </c>
@@ -14835,7 +15015,7 @@
       <c r="AL43" s="13"/>
       <c r="AM43" s="7"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A44" s="2">
         <v>41913</v>
       </c>
@@ -14935,7 +15115,7 @@
       <c r="AL44" s="13"/>
       <c r="AM44" s="7"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A45" s="2">
         <v>41944</v>
       </c>
@@ -14999,7 +15179,7 @@
         <v>13.290322580645162</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A46" s="2">
         <v>41974</v>
       </c>
@@ -15050,7 +15230,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A47" s="2">
         <v>42005</v>
       </c>
@@ -15109,7 +15289,7 @@
         <v>0.50700582021987495</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.5">
       <c r="A48" s="2">
         <v>42036</v>
       </c>
@@ -15160,7 +15340,7 @@
         <v>169</v>
       </c>
       <c r="R48">
-        <f t="shared" ref="R48:R67" si="19">(AVERAGE(Q42:Q53)+AVERAGE(Q43:Q54))/2</f>
+        <f t="shared" ref="R48:R66" si="19">(AVERAGE(Q42:Q53)+AVERAGE(Q43:Q54))/2</f>
         <v>183.04166666666669</v>
       </c>
       <c r="S48" s="7">
@@ -15168,7 +15348,7 @@
         <v>0.92328704757568847</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A49" s="2">
         <v>42064</v>
       </c>
@@ -15227,7 +15407,7 @@
         <v>1.0145689037497017</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A50" s="2">
         <v>42095</v>
       </c>
@@ -15286,7 +15466,7 @@
         <v>1.1333982473222981</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A51" s="2">
         <v>42125</v>
       </c>
@@ -15345,7 +15525,7 @@
         <v>0.71874220114799114</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A52" s="4">
         <v>42156</v>
       </c>
@@ -15401,7 +15581,7 @@
         <v>1.7484276729559749</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A53" s="2">
         <v>42186</v>
       </c>
@@ -15457,7 +15637,7 @@
         <v>0.92207792207792205</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A54" s="2">
         <v>42217</v>
       </c>
@@ -15513,7 +15693,7 @@
         <v>1.1587561374795416</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A55" s="2">
         <v>42248</v>
       </c>
@@ -15569,7 +15749,7 @@
         <v>1.2496574403946286</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A56" s="2">
         <v>42278</v>
       </c>
@@ -15625,7 +15805,7 @@
         <v>0.64416688812117984</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A57" s="2">
         <v>42309</v>
       </c>
@@ -15681,7 +15861,7 @@
         <v>0.62137913355549856</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A58" s="2">
         <v>42339</v>
       </c>
@@ -15737,7 +15917,7 @@
         <v>0.58133605303416613</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A59" s="2">
         <v>42370</v>
       </c>
@@ -15793,7 +15973,7 @@
         <v>0.66633013629480065</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A60" s="2">
         <v>42401</v>
       </c>
@@ -15849,7 +16029,7 @@
         <v>0.76756484512717205</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A61" s="2">
         <v>42430</v>
       </c>
@@ -15905,7 +16085,7 @@
         <v>1.2469135802469136</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A62" s="2">
         <v>42461</v>
       </c>
@@ -15961,7 +16141,7 @@
         <v>1.687872763419483</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A63" s="2">
         <v>42491</v>
       </c>
@@ -16017,7 +16197,7 @@
         <v>0.93564013840830451</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A64" s="2">
         <v>42522</v>
       </c>
@@ -16073,7 +16253,7 @@
         <v>1.3294925769997785</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A65" s="2">
         <v>42552</v>
       </c>
@@ -16129,7 +16309,7 @@
         <v>1.071200850159405</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A66" s="2">
         <v>42583</v>
       </c>
@@ -16185,7 +16365,7 @@
         <v>0.5874299937772246</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A67" s="2">
         <v>42614</v>
       </c>
@@ -16210,7 +16390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A68" s="2">
         <v>42644</v>
       </c>
@@ -16234,7 +16414,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A69" s="2">
         <v>42675</v>
       </c>
@@ -16258,7 +16438,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A70" s="2">
         <v>42705</v>
       </c>
@@ -16282,7 +16462,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A71" s="2">
         <v>42736</v>
       </c>
@@ -16306,7 +16486,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A72" s="2">
         <v>42767</v>
       </c>

--- a/whoishiring/employment.xlsx
+++ b/whoishiring/employment.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winson\Google Drive\2018\WinsonLuk.com\whoishiring\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5406AA-1430-4F31-A475-24F621BFE22B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11627,16 +11628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>738189</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1797050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1778001</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11841,6 +11842,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>319185</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7788F45D-F60E-4DDD-8819-20DA5F5F7A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16740188" y="39688"/>
+          <a:ext cx="11376122" cy="4962574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12109,8 +12154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
